--- a/biology/Botanique/Galactites/Galactites.xlsx
+++ b/biology/Botanique/Galactites/Galactites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Galactites est un genre de plantes à fleurs de la famille des Asteraceae, appelées galactites ou galactitès. Son nom est dérivé du grec γάλακτος (= "lait"). L'espèce la plus connue est Galactites tomentosa Moench.
-Ce genre a été décrit pour la première fois en 1794 par le botaniste allemand Conrad Moench (1744-1805)[1].
+Ce genre a été décrit pour la première fois en 1794 par le botaniste allemand Conrad Moench (1744-1805).
 </t>
         </is>
       </c>
@@ -512,14 +524,16 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (21 novembre 2014)[2] et Catalogue of Life                                   (21 novembre 2014)[3]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (21 novembre 2014) et Catalogue of Life                                   (21 novembre 2014):
 Galactites duriaei Spach ex Durieu
 Galactites mutabilis Durieu
 Galactites rigualii ""Figuerola, Stübing &amp; Peris""
 Galactites tomentosa Moench - Galactite tomenteuse, Galactite cotonneux, Chardon laiteux
-Selon Tropicos                                           (21 novembre 2014)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (21 novembre 2014) (Attention liste brute contenant possiblement des synonymes) :
 Galactites australis Sweet ex Steud.
 Galactites duriaei Spach
 Galactites elegans (All.) Nyman ex Soldano
